--- a/natmiOut/OldD7/LR-pairs_lrc2p/Agt-Agtr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Agt-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Agt</t>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.05671333333333334</v>
+      </c>
+      <c r="H2">
+        <v>0.17014</v>
+      </c>
+      <c r="I2">
+        <v>0.02987656731692481</v>
+      </c>
+      <c r="J2">
+        <v>0.02987656731692481</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>34.682839</v>
+      </c>
+      <c r="N2">
+        <v>104.048517</v>
+      </c>
+      <c r="O2">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="P2">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="Q2">
+        <v>1.966979409153333</v>
+      </c>
+      <c r="R2">
+        <v>17.70281468238</v>
+      </c>
+      <c r="S2">
+        <v>0.02963737589996325</v>
+      </c>
+      <c r="T2">
+        <v>0.02963737589996325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.66821857316745</v>
-      </c>
-      <c r="H2">
-        <v>1.66821857316745</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>33.4307472990935</v>
-      </c>
-      <c r="N2">
-        <v>33.4307472990935</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>55.76979355921534</v>
-      </c>
-      <c r="R2">
-        <v>55.76979355921534</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.05671333333333334</v>
+      </c>
+      <c r="H3">
+        <v>0.17014</v>
+      </c>
+      <c r="I3">
+        <v>0.02987656731692481</v>
+      </c>
+      <c r="J3">
+        <v>0.02987656731692481</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.839734</v>
+      </c>
+      <c r="O3">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P3">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q3">
+        <v>0.01587470475111111</v>
+      </c>
+      <c r="R3">
+        <v>0.14287234276</v>
+      </c>
+      <c r="S3">
+        <v>0.0002391914169615674</v>
+      </c>
+      <c r="T3">
+        <v>0.0002391914169615674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.761113666666667</v>
+      </c>
+      <c r="H4">
+        <v>5.283341</v>
+      </c>
+      <c r="I4">
+        <v>0.9277541615420762</v>
+      </c>
+      <c r="J4">
+        <v>0.9277541615420761</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>34.682839</v>
+      </c>
+      <c r="N4">
+        <v>104.048517</v>
+      </c>
+      <c r="O4">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="P4">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="Q4">
+        <v>61.08042176169967</v>
+      </c>
+      <c r="R4">
+        <v>549.723795855297</v>
+      </c>
+      <c r="S4">
+        <v>0.9203265735552352</v>
+      </c>
+      <c r="T4">
+        <v>0.9203265735552352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.761113666666667</v>
+      </c>
+      <c r="H5">
+        <v>5.283341</v>
+      </c>
+      <c r="I5">
+        <v>0.9277541615420762</v>
+      </c>
+      <c r="J5">
+        <v>0.9277541615420761</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.839734</v>
+      </c>
+      <c r="O5">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P5">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q5">
+        <v>0.4929556745882223</v>
+      </c>
+      <c r="R5">
+        <v>4.436601071294</v>
+      </c>
+      <c r="S5">
+        <v>0.007427587986841099</v>
+      </c>
+      <c r="T5">
+        <v>0.007427587986841098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.08042766666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.241283</v>
+      </c>
+      <c r="I6">
+        <v>0.04236927114099899</v>
+      </c>
+      <c r="J6">
+        <v>0.04236927114099899</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>34.682839</v>
+      </c>
+      <c r="N6">
+        <v>104.048517</v>
+      </c>
+      <c r="O6">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="P6">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="Q6">
+        <v>2.789459814145667</v>
+      </c>
+      <c r="R6">
+        <v>25.105138327311</v>
+      </c>
+      <c r="S6">
+        <v>0.04203006329652539</v>
+      </c>
+      <c r="T6">
+        <v>0.04203006329652539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08042766666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.241283</v>
+      </c>
+      <c r="I7">
+        <v>0.04236927114099899</v>
+      </c>
+      <c r="J7">
+        <v>0.04236927114099899</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.839734</v>
+      </c>
+      <c r="O7">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P7">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q7">
+        <v>0.02251261541355555</v>
+      </c>
+      <c r="R7">
+        <v>0.202613538722</v>
+      </c>
+      <c r="S7">
+        <v>0.0003392078444735974</v>
+      </c>
+      <c r="T7">
+        <v>0.0003392078444735974</v>
       </c>
     </row>
   </sheetData>
